--- a/doc/6502_ops.xlsx
+++ b/doc/6502_ops.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="11535"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -769,9 +769,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1070,8 +1070,8 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1469,10 +1469,10 @@
       <c r="I29" t="s">
         <v>137</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
@@ -1609,34 +1609,34 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1697,31 +1697,31 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
         <v>217</v>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="D60">
         <f>(A60/56)*100</f>
-        <v>71.428571428571431</v>
+        <v>78.571428571428569</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D61">
         <f>(A61/151)*100</f>
-        <v>88.741721854304629</v>
+        <v>91.390728476821195</v>
       </c>
     </row>
   </sheetData>

--- a/doc/6502_ops.xlsx
+++ b/doc/6502_ops.xlsx
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -1475,10 +1475,10 @@
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1689,10 +1689,10 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
         <v>217</v>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="D60">
         <f>(A60/56)*100</f>
-        <v>78.571428571428569</v>
+        <v>82.142857142857139</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D61">
         <f>(A61/151)*100</f>
-        <v>91.390728476821195</v>
+        <v>92.715231788079464</v>
       </c>
     </row>
   </sheetData>

--- a/doc/6502_ops.xlsx
+++ b/doc/6502_ops.xlsx
@@ -771,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -1463,10 +1463,10 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
         <v>217</v>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="D60">
         <f>(A60/56)*100</f>
-        <v>82.142857142857139</v>
+        <v>83.928571428571431</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D61">
         <f>(A61/151)*100</f>
-        <v>92.715231788079464</v>
+        <v>94.039735099337747</v>
       </c>
     </row>
   </sheetData>

--- a/doc/6502_ops.xlsx
+++ b/doc/6502_ops.xlsx
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -1196,26 +1196,26 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1231,26 +1231,26 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1263,18 +1263,18 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>217</v>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="D60">
         <f>(A60/56)*100</f>
-        <v>83.928571428571431</v>
+        <v>98.214285714285708</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D61">
         <f>(A61/151)*100</f>
-        <v>94.039735099337747</v>
+        <v>99.337748344370851</v>
       </c>
     </row>
   </sheetData>
